--- a/Downloads/Possibility Filter V4.xlsx
+++ b/Downloads/Possibility Filter V4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Tiny Magiq Client Work\1 - Hipoha Program Process\MVP Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDE4261-C161-47CF-B6BC-6658702121FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0B55A-223C-4619-A004-F13BC98A0C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
@@ -597,68 +597,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2573A-FEAE-4632-8EED-3B01D309CD71}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,10 +1212,10 @@
     <col min="4" max="4" width="4.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1227,10 +1227,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="13">
         <v>3</v>
       </c>
@@ -1240,15 +1240,15 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="4">
         <v>2</v>
       </c>
@@ -1258,15 +1258,15 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="16">
         <v>1</v>
       </c>
@@ -1276,9 +1276,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3"/>
@@ -1290,65 +1290,65 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" s="28" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="30" t="s">
+    <row r="8" spans="2:12" s="21" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
